--- a/data_year/zb/公共管理、社会保障及其他/人民检察院处理申诉案件情况/人民检察院申诉案件受案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院处理申诉案件情况/人民检察院申诉案件受案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,751 +498,483 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>803</v>
+        <v>1943</v>
       </c>
       <c r="C2" t="n">
-        <v>1796</v>
+        <v>2846</v>
       </c>
       <c r="D2" t="n">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="F2" t="n">
-        <v>4945</v>
+        <v>6583</v>
       </c>
       <c r="G2" t="n">
-        <v>5221</v>
+        <v>7003</v>
       </c>
       <c r="H2" t="n">
-        <v>1876</v>
+        <v>1600</v>
       </c>
       <c r="I2" t="n">
-        <v>2247</v>
+        <v>2376</v>
       </c>
       <c r="J2" t="n">
-        <v>1429</v>
+        <v>2540</v>
       </c>
       <c r="K2" t="n">
-        <v>1130</v>
+        <v>1482</v>
       </c>
       <c r="L2" t="n">
-        <v>415</v>
+        <v>605</v>
       </c>
       <c r="M2" t="n">
-        <v>10166</v>
+        <v>13586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559</v>
+        <v>1048</v>
       </c>
       <c r="C3" t="n">
-        <v>2334</v>
+        <v>1822</v>
       </c>
       <c r="D3" t="n">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>5181</v>
+        <v>4224</v>
       </c>
       <c r="G3" t="n">
-        <v>5758</v>
+        <v>7167</v>
       </c>
       <c r="H3" t="n">
-        <v>1932</v>
+        <v>1246</v>
       </c>
       <c r="I3" t="n">
-        <v>2522</v>
+        <v>2298</v>
       </c>
       <c r="J3" t="n">
-        <v>1477</v>
+        <v>2671</v>
       </c>
       <c r="K3" t="n">
-        <v>1262</v>
+        <v>1529</v>
       </c>
       <c r="L3" t="n">
-        <v>497</v>
+        <v>669</v>
       </c>
       <c r="M3" t="n">
-        <v>10939</v>
+        <v>11391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519</v>
+        <v>2118</v>
       </c>
       <c r="C4" t="n">
-        <v>1551</v>
+        <v>2405</v>
       </c>
       <c r="D4" t="n">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="F4" t="n">
-        <v>3623</v>
+        <v>6664</v>
       </c>
       <c r="G4" t="n">
-        <v>4504</v>
+        <v>9985</v>
       </c>
       <c r="H4" t="n">
-        <v>1282</v>
+        <v>2017</v>
       </c>
       <c r="I4" t="n">
-        <v>1903</v>
+        <v>3461</v>
       </c>
       <c r="J4" t="n">
-        <v>1093</v>
+        <v>3792</v>
       </c>
       <c r="K4" t="n">
-        <v>1145</v>
+        <v>1830</v>
       </c>
       <c r="L4" t="n">
-        <v>363</v>
+        <v>902</v>
       </c>
       <c r="M4" t="n">
-        <v>8127</v>
+        <v>16649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>437</v>
+        <v>1468</v>
       </c>
       <c r="C5" t="n">
-        <v>1398</v>
+        <v>4357</v>
       </c>
       <c r="D5" t="n">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F5" t="n">
-        <v>3422</v>
+        <v>9259</v>
       </c>
       <c r="G5" t="n">
-        <v>4740</v>
+        <v>13387</v>
       </c>
       <c r="H5" t="n">
-        <v>1318</v>
+        <v>3297</v>
       </c>
       <c r="I5" t="n">
-        <v>1807</v>
+        <v>4876</v>
       </c>
       <c r="J5" t="n">
-        <v>1383</v>
+        <v>4761</v>
       </c>
       <c r="K5" t="n">
-        <v>1161</v>
+        <v>2588</v>
       </c>
       <c r="L5" t="n">
-        <v>389</v>
+        <v>1162</v>
       </c>
       <c r="M5" t="n">
-        <v>8162</v>
+        <v>22646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>388</v>
+        <v>713</v>
       </c>
       <c r="C6" t="n">
-        <v>1075</v>
+        <v>3759</v>
       </c>
       <c r="D6" t="n">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="E6" t="n">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>2632</v>
+        <v>6076</v>
       </c>
       <c r="G6" t="n">
-        <v>3593</v>
+        <v>11283</v>
       </c>
       <c r="H6" t="n">
-        <v>964</v>
+        <v>1502</v>
       </c>
       <c r="I6" t="n">
-        <v>1352</v>
+        <v>3701</v>
       </c>
       <c r="J6" t="n">
-        <v>1054</v>
+        <v>3359</v>
       </c>
       <c r="K6" t="n">
-        <v>899</v>
+        <v>3104</v>
       </c>
       <c r="L6" t="n">
-        <v>288</v>
+        <v>1119</v>
       </c>
       <c r="M6" t="n">
-        <v>6225</v>
+        <v>17359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336</v>
+        <v>261</v>
       </c>
       <c r="C7" t="n">
-        <v>993</v>
+        <v>2958</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>2402</v>
+        <v>3681</v>
       </c>
       <c r="G7" t="n">
-        <v>2973</v>
+        <v>9901</v>
       </c>
       <c r="H7" t="n">
-        <v>960</v>
+        <v>379</v>
       </c>
       <c r="I7" t="n">
-        <v>1069</v>
+        <v>2876</v>
       </c>
       <c r="J7" t="n">
-        <v>929</v>
+        <v>2321</v>
       </c>
       <c r="K7" t="n">
-        <v>742</v>
+        <v>3458</v>
       </c>
       <c r="L7" t="n">
-        <v>233</v>
+        <v>965</v>
       </c>
       <c r="M7" t="n">
-        <v>5375</v>
+        <v>13582</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569</v>
+        <v>227</v>
       </c>
       <c r="C8" t="n">
-        <v>1426</v>
+        <v>2875</v>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>3033</v>
+        <v>3360</v>
       </c>
       <c r="G8" t="n">
-        <v>3390</v>
+        <v>9983</v>
       </c>
       <c r="H8" t="n">
-        <v>912</v>
+        <v>213</v>
       </c>
       <c r="I8" t="n">
-        <v>1233</v>
+        <v>2802</v>
       </c>
       <c r="J8" t="n">
-        <v>1022</v>
+        <v>2199</v>
       </c>
       <c r="K8" t="n">
-        <v>838</v>
+        <v>3517</v>
       </c>
       <c r="L8" t="n">
-        <v>297</v>
+        <v>963</v>
       </c>
       <c r="M8" t="n">
-        <v>6423</v>
+        <v>13343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1943</v>
+        <v>256</v>
       </c>
       <c r="C9" t="n">
-        <v>2846</v>
-      </c>
-      <c r="D9" t="n">
-        <v>108</v>
-      </c>
+        <v>3488</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>6583</v>
+        <v>3988</v>
       </c>
       <c r="G9" t="n">
-        <v>7003</v>
+        <v>11727</v>
       </c>
       <c r="H9" t="n">
-        <v>1600</v>
+        <v>210</v>
       </c>
       <c r="I9" t="n">
-        <v>2376</v>
+        <v>3197</v>
       </c>
       <c r="J9" t="n">
-        <v>2540</v>
+        <v>2448</v>
       </c>
       <c r="K9" t="n">
-        <v>1482</v>
+        <v>4239</v>
       </c>
       <c r="L9" t="n">
-        <v>605</v>
+        <v>1151</v>
       </c>
       <c r="M9" t="n">
-        <v>13586</v>
+        <v>15715</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1048</v>
+        <v>187</v>
       </c>
       <c r="C10" t="n">
-        <v>1822</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56</v>
-      </c>
+        <v>3375</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>4224</v>
+        <v>3779</v>
       </c>
       <c r="G10" t="n">
-        <v>7167</v>
+        <v>13147</v>
       </c>
       <c r="H10" t="n">
-        <v>1246</v>
+        <v>189</v>
       </c>
       <c r="I10" t="n">
-        <v>2298</v>
+        <v>3955</v>
       </c>
       <c r="J10" t="n">
-        <v>2671</v>
+        <v>2632</v>
       </c>
       <c r="K10" t="n">
-        <v>1529</v>
+        <v>4572</v>
       </c>
       <c r="L10" t="n">
-        <v>669</v>
+        <v>1143</v>
       </c>
       <c r="M10" t="n">
-        <v>11391</v>
+        <v>16926</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2118</v>
+        <v>192</v>
       </c>
       <c r="C11" t="n">
-        <v>2405</v>
-      </c>
-      <c r="D11" t="n">
-        <v>58</v>
-      </c>
+        <v>4157</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>6664</v>
+        <v>4672</v>
       </c>
       <c r="G11" t="n">
-        <v>9985</v>
+        <v>14908</v>
       </c>
       <c r="H11" t="n">
-        <v>2017</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3461</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3792</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1830</v>
-      </c>
-      <c r="L11" t="n">
-        <v>902</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>16649</v>
+        <v>19580</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1468</v>
+        <v>202</v>
       </c>
       <c r="C12" t="n">
-        <v>4357</v>
-      </c>
-      <c r="D12" t="n">
-        <v>74</v>
-      </c>
+        <v>4244</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>9259</v>
+        <v>4830</v>
       </c>
       <c r="G12" t="n">
-        <v>13387</v>
+        <v>8282</v>
       </c>
       <c r="H12" t="n">
-        <v>3297</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4876</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4761</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2588</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1162</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>22646</v>
+        <v>13112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713</v>
+        <v>379</v>
       </c>
       <c r="C13" t="n">
-        <v>3759</v>
-      </c>
-      <c r="D13" t="n">
-        <v>68</v>
-      </c>
+        <v>3415</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>6076</v>
+        <v>4157</v>
       </c>
       <c r="G13" t="n">
-        <v>11283</v>
+        <v>5039</v>
       </c>
       <c r="H13" t="n">
-        <v>1502</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3701</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3359</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3104</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1119</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>17359</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>261</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2958</v>
-      </c>
-      <c r="D14" t="n">
-        <v>52</v>
-      </c>
-      <c r="E14" t="n">
-        <v>31</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3681</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9901</v>
-      </c>
-      <c r="H14" t="n">
-        <v>379</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2876</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2321</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3458</v>
-      </c>
-      <c r="L14" t="n">
-        <v>965</v>
-      </c>
-      <c r="M14" t="n">
-        <v>13582</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>227</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2875</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>36</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3360</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9983</v>
-      </c>
-      <c r="H15" t="n">
-        <v>213</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2802</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2199</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3517</v>
-      </c>
-      <c r="L15" t="n">
-        <v>963</v>
-      </c>
-      <c r="M15" t="n">
-        <v>13343</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>256</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3488</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>34</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3988</v>
-      </c>
-      <c r="G16" t="n">
-        <v>11727</v>
-      </c>
-      <c r="H16" t="n">
-        <v>210</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3197</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2448</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4239</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1151</v>
-      </c>
-      <c r="M16" t="n">
-        <v>15715</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>187</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3375</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>28</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3779</v>
-      </c>
-      <c r="G17" t="n">
-        <v>13147</v>
-      </c>
-      <c r="H17" t="n">
-        <v>189</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3955</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2632</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4572</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1143</v>
-      </c>
-      <c r="M17" t="n">
-        <v>16926</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>192</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4157</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>15</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4672</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14908</v>
-      </c>
-      <c r="H18" t="n">
-        <v>308</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>19580</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>202</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4244</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>19</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4830</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8282</v>
-      </c>
-      <c r="H19" t="n">
-        <v>365</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>13112</v>
+        <v>9196</v>
       </c>
     </row>
   </sheetData>
